--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -527,641 +527,641 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>979</v>
+        <v>1411</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CASH3</t>
+          <t>CRFB3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6239487068631244</v>
+        <v>0.2720781867125966</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4994443031902729</v>
+        <v>0.6197463362840328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000607855528928107</v>
+        <v>0.0005039660975126675</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.335891079365637</v>
+        <v>0.8767392072814807</v>
       </c>
       <c r="H2" t="n">
-        <v>1.018656497652185</v>
+        <v>0.3838093792146387</v>
       </c>
       <c r="I2" t="n">
-        <v>1.365942736513368e-49</v>
+        <v>2.141700632237021e-35</v>
       </c>
       <c r="J2" t="n">
-        <v>3.859999895095825</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="K2" t="n">
-        <v>9.699999809265137</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6265599457313415</v>
+        <v>0.7504125409022873</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.477315359489066</v>
+        <v>-0.5586898766012469</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2121203223116055</v>
+        <v>0.2455351666252408</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3149231415285776</v>
+        <v>0.4089865248240097</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01169143406607171</v>
+        <v>0.007108825933514119</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>CASH3</t>
+          <t>CRFB3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1784</v>
+        <v>660</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELET3</t>
+          <t>BHIA3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SANB11</t>
+          <t>CRFB3</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6877615845309863</v>
+        <v>0.622186650277587</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7154853890479301</v>
+        <v>0.2720781867125966</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008526872635032055</v>
+        <v>0.000621843491589003</v>
       </c>
       <c r="G3" t="n">
-        <v>10.29054168479689</v>
+        <v>-1.336009636951983</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9887030815598392</v>
+        <v>0.7703535008062883</v>
       </c>
       <c r="I3" t="n">
-        <v>9.436803930236129e-73</v>
+        <v>2.384330075354125e-36</v>
       </c>
       <c r="J3" t="n">
-        <v>34.95000076293945</v>
+        <v>3.130000114440918</v>
       </c>
       <c r="K3" t="n">
-        <v>26.3799991607666</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="L3" t="n">
-        <v>1.377156571813849</v>
+        <v>0.4840067879145362</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.48920506083693</v>
+        <v>-0.5701608725011269</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6992790288360994</v>
+        <v>0.1975858474041677</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.42252738365335</v>
+        <v>-0.3178855180008027</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01189890110692151</v>
+        <v>0.007146223305129637</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>ELET3</t>
+          <t>BHIA3</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>SANB11</t>
+          <t>CRFB3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>670</v>
+        <v>1392</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>CRFB3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ENGI11</t>
+          <t>EGIE3</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7268023887647024</v>
+        <v>0.2720781867125966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7672091900465468</v>
+        <v>0.7437147856976263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002974954165485848</v>
+        <v>0.0006637599267142431</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.643772529746007</v>
+        <v>-4.274386092352807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2813952904999789</v>
+        <v>0.2815233686441728</v>
       </c>
       <c r="I4" t="n">
-        <v>1.732219699853426e-65</v>
+        <v>6.164232867436958e-35</v>
       </c>
       <c r="J4" t="n">
-        <v>3.130000114440918</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="K4" t="n">
-        <v>40.59000015258789</v>
+        <v>35.95000076293945</v>
       </c>
       <c r="L4" t="n">
-        <v>1.77096100697484</v>
+        <v>0.6262047725322288</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.028317489185854</v>
+        <v>-0.493036251536199</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3945716197365796</v>
+        <v>0.2488361643260476</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.648062240144732</v>
+        <v>0.3636208129564835</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01392760567449013</v>
+        <v>0.007323545923319962</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>EGIE3</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>ENGI11</t>
+          <t>CRFB3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1242</v>
+        <v>2641</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COGN3</t>
+          <t>NTCO3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>KLBN11</t>
+          <t>TAEE11</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4236248162123712</v>
+        <v>0.3750373471305981</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3330914032738152</v>
+        <v>0.4763886110161554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007252442153393105</v>
+        <v>0.0003392767784540911</v>
       </c>
       <c r="G5" t="n">
-        <v>3.17722251961487</v>
+        <v>-23.02967088041939</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.08576832478958218</v>
+        <v>1.091791745889811</v>
       </c>
       <c r="I5" t="n">
-        <v>5.477595956444559e-17</v>
+        <v>3.509316567207363e-23</v>
       </c>
       <c r="J5" t="n">
-        <v>1.529999971389771</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="K5" t="n">
-        <v>21.15999984741211</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="L5" t="n">
-        <v>0.325876029162522</v>
+        <v>1.549659669861175</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1890131206249972</v>
+        <v>-1.005548390767448</v>
       </c>
       <c r="N5" t="n">
-        <v>0.104318177683033</v>
+        <v>0.4804747040016043</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1676351912352516</v>
+        <v>-0.4876206281258249</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01398933254204615</v>
+        <v>0.007845790910364567</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>KLBN11</t>
+          <t>NTCO3</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>COGN3</t>
+          <t>TAEE11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1922</v>
+        <v>1396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CRFB3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>ENGI11</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SANB11</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>0.7672091900465468</v>
+        <v>0.2720781867125966</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7154853890479301</v>
+        <v>0.5678700502486932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002566719949525669</v>
+        <v>0.0006383663002802214</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.08710601355615</v>
+        <v>-3.328357322546133</v>
       </c>
       <c r="H6" t="n">
-        <v>1.661049701094487</v>
+        <v>0.2419977184175739</v>
       </c>
       <c r="I6" t="n">
-        <v>1.063468529790643e-77</v>
+        <v>6.968875828631975e-36</v>
       </c>
       <c r="J6" t="n">
-        <v>40.59000015258789</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="K6" t="n">
-        <v>26.3799991607666</v>
+        <v>40.4900016784668</v>
       </c>
       <c r="L6" t="n">
-        <v>2.591491272804582</v>
+        <v>0.8880750507092134</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.829061416641565</v>
+        <v>-0.483362219356966</v>
       </c>
       <c r="N6" t="n">
-        <v>1.072797856692913</v>
+        <v>0.2420771481785381</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.141383554720136</v>
+        <v>-0.2601306642195969</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01443496788984047</v>
+        <v>0.008139236239292478</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>CRFB3</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>ENGI11</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>SANB11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>701</v>
+        <v>1080</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>CCRO3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SANB11</t>
+          <t>RDOR3</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7268023887647024</v>
+        <v>0.6378895969939511</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7154853890479301</v>
+        <v>0.434372577205124</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006471990090492078</v>
+        <v>0.001866206563700559</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.73255200539084</v>
+        <v>-2.777555556507352</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4860595028642702</v>
+        <v>0.5018651037317641</v>
       </c>
       <c r="I7" t="n">
-        <v>8.596116509891721e-65</v>
+        <v>5.121724127380238e-41</v>
       </c>
       <c r="J7" t="n">
-        <v>3.130000114440918</v>
+        <v>10.92000007629395</v>
       </c>
       <c r="K7" t="n">
-        <v>26.3799991607666</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="L7" t="n">
-        <v>1.333880086828451</v>
+        <v>0.5595760130450209</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.239939237869741</v>
+        <v>-0.4807303802460172</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3992077937951015</v>
+        <v>0.2296903956576911</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.9596971578103215</v>
+        <v>-0.429946845801517</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01443806231276741</v>
+        <v>0.008177937189534058</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>CCRO3</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>SANB11</t>
+          <t>RDOR3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1019</v>
+        <v>1435</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASH3</t>
+          <t>CRFB3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RDOR3</t>
+          <t>UGPA3</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6239487068631244</v>
+        <v>0.2720781867125966</v>
       </c>
       <c r="E8" t="n">
-        <v>0.617148971790242</v>
+        <v>0.6485178117522215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005945838604580955</v>
+        <v>0.002660697970125166</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.968259742104436</v>
+        <v>0.8962284518436631</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1883501986022749</v>
+        <v>0.3020619494828455</v>
       </c>
       <c r="I8" t="n">
-        <v>2.013004309684196e-51</v>
+        <v>2.979192664029844e-34</v>
       </c>
       <c r="J8" t="n">
-        <v>3.859999895095825</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="K8" t="n">
-        <v>28.1299991607666</v>
+        <v>16.09000015258789</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7723887527698197</v>
+        <v>0.7134592726986488</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3634797120793731</v>
+        <v>-0.5409714340223379</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2057008966632847</v>
+        <v>0.2538377113692347</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5299687085880471</v>
+        <v>0.4535947730333305</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01449063205772351</v>
+        <v>0.008281631529622508</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>RDOR3</t>
+          <t>UGPA3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>CASH3</t>
+          <t>CRFB3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>927</v>
+        <v>2549</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRKM5</t>
+          <t>MRFG3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ENEV3</t>
+          <t>MRVE3</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7912647685317171</v>
+        <v>0.1159516224035689</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8331990412862876</v>
+        <v>0.2731122747572531</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004058893772899513</v>
+        <v>0.002883285280518136</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.024076885209723</v>
+        <v>26.56244221451445</v>
       </c>
       <c r="H9" t="n">
-        <v>1.927330155151602</v>
+        <v>-1.928185349069661</v>
       </c>
       <c r="I9" t="n">
-        <v>2.180531435247685e-62</v>
+        <v>6.355309316770788e-33</v>
       </c>
       <c r="J9" t="n">
-        <v>13.22000026702881</v>
+        <v>14.84000015258789</v>
       </c>
       <c r="K9" t="n">
-        <v>11.63000011444092</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="L9" t="n">
-        <v>2.037884342939034</v>
+        <v>1.884411764689288</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.022194981743247</v>
+        <v>-1.48767602583626</v>
       </c>
       <c r="N9" t="n">
-        <v>0.920621511971914</v>
+        <v>0.7306517821135379</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.170772772740037</v>
+        <v>-1.213832277269072</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01455799624154682</v>
+        <v>0.008368021470477473</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>BRKM5</t>
+          <t>MRFG3</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>ENEV3</t>
+          <t>MRVE3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2514</v>
+        <v>313</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UGPA3</t>
+          <t>CPFE3</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7733416478608395</v>
+        <v>0.928168774522523</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9045149967903711</v>
+        <v>0.7773110044066943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004944676223829097</v>
+        <v>0.003240449876633282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6110855444694667</v>
+        <v>-16.06751679824558</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1706688606276596</v>
+        <v>1.269517976293707</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166978911354018e-63</v>
+        <v>1.837718288912177e-29</v>
       </c>
       <c r="J10" t="n">
-        <v>3.069999933242798</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="K10" t="n">
-        <v>16.05999946594238</v>
+        <v>34.04000091552734</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7078868092077828</v>
+        <v>0.9396484112103067</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.3463562599216612</v>
+        <v>-1.859713599180381</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1790250213140387</v>
+        <v>0.4934730198170734</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.2820274217598771</v>
+        <v>0.6331244095748758</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01474492002077286</v>
+        <v>0.008656016707231757</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>LWSA3</t>
+          <t>CPFE3</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>UGPA3</t>
+          <t>BBAS3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>659</v>
+        <v>2646</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>NTCO3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>VALE3</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7268023887647024</v>
+        <v>0.3750373471305981</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4994443031902729</v>
+        <v>0.5168942088187115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00804489532671568</v>
+        <v>0.002722371489223459</v>
       </c>
       <c r="G11" t="n">
-        <v>-19.13826623605698</v>
+        <v>0.5092431602669829</v>
       </c>
       <c r="H11" t="n">
-        <v>2.429152457526162</v>
+        <v>0.2303503277171091</v>
       </c>
       <c r="I11" t="n">
-        <v>1.383664832977573e-45</v>
+        <v>3.830159146807644e-22</v>
       </c>
       <c r="J11" t="n">
-        <v>3.130000114440918</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="K11" t="n">
-        <v>9.699999809265137</v>
+        <v>54.83000183105469</v>
       </c>
       <c r="L11" t="n">
-        <v>2.173917675708498</v>
+        <v>1.018949405208502</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.593176132557439</v>
+        <v>-1.051469536408769</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5510456972291256</v>
+        <v>0.49515697473763</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.294512024181813</v>
+        <v>-0.6493522796619597</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01498707212770718</v>
+        <v>0.008710971576677603</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>NTCO3</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>CPLE6</t>
+          <t>VALE3</t>
         </is>
       </c>
     </row>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -531,12 +531,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>LREN3.SA</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -580,12 +580,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>LREN3</t>
+          <t>LREN3.SA</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>BHIA3.SA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -644,12 +644,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>BHIA3</t>
+          <t>BHIA3.SA</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EGIE3</t>
+          <t>EGIE3.SA</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -708,12 +708,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>EGIE3</t>
+          <t>EGIE3.SA</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NTCO3</t>
+          <t>NTCO3.SA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TAEE11</t>
+          <t>TAEE11.SA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -772,12 +772,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>NTCO3</t>
+          <t>NTCO3.SA</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>TAEE11</t>
+          <t>TAEE11.SA</t>
         </is>
       </c>
     </row>
@@ -787,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ENGI11</t>
+          <t>ENGI11.SA</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -836,12 +836,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>ENGI11</t>
+          <t>ENGI11.SA</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CCRO3</t>
+          <t>CCRO3.SA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RDOR3</t>
+          <t>RDOR3.SA</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -900,12 +900,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>CCRO3</t>
+          <t>CCRO3.SA</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>RDOR3</t>
+          <t>RDOR3.SA</t>
         </is>
       </c>
     </row>
@@ -915,12 +915,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UGPA3</t>
+          <t>UGPA3.SA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>UGPA3</t>
+          <t>UGPA3.SA</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>CRFB3</t>
+          <t>CRFB3.SA</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>MRFG3.SA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MRVE3</t>
+          <t>MRVE3.SA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>MRFG3</t>
+          <t>MRFG3.SA</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>MRVE3</t>
+          <t>MRVE3.SA</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BBAS3</t>
+          <t>BBAS3.SA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CPFE3</t>
+          <t>CPFE3.SA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>CPFE3</t>
+          <t>CPFE3.SA</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>BBAS3</t>
+          <t>BBAS3.SA</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NTCO3</t>
+          <t>NTCO3.SA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>VALE3.SA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>NTCO3</t>
+          <t>NTCO3.SA</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>VALE3.SA</t>
         </is>
       </c>
     </row>
